--- a/random_table.xlsx
+++ b/random_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,41 +495,41 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E2" t="n">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>283</v>
+        <v>214</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -538,41 +538,41 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
-        <v>216</v>
+        <v>301</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИБ</t>
         </is>
       </c>
     </row>
@@ -581,36 +581,36 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="F4" t="n">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -624,26 +624,26 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C5" t="n">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -667,41 +667,41 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C6" t="n">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E6" t="n">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -710,31 +710,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C7" t="n">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F7" t="n">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -753,41 +753,41 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C8" t="n">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="D8" t="n">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>304</v>
+        <v>160</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -799,38 +799,38 @@
         <v>53</v>
       </c>
       <c r="C9" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D9" t="n">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -839,31 +839,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C10" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D10" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E10" t="n">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="F10" t="n">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -882,22 +882,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C11" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D11" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>298</v>
+        <v>196</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -925,36 +925,36 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C12" t="n">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="D12" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>229</v>
+        <v>326</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -968,26 +968,26 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D13" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E13" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F13" t="n">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1011,41 +1011,41 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D14" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
     </row>
@@ -1054,31 +1054,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C15" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D15" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E15" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F15" t="n">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1097,19 +1097,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C16" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D16" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E16" t="n">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="F16" t="n">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1140,22 +1140,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C17" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F17" t="n">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1169,12 +1169,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1183,26 +1183,26 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C18" t="n">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D18" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E18" t="n">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="F18" t="n">
-        <v>332</v>
+        <v>192</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1226,41 +1226,41 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C19" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="E19" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F19" t="n">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1269,41 +1269,41 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C20" t="n">
         <v>62</v>
       </c>
       <c r="D20" t="n">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E20" t="n">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="F20" t="n">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
     </row>
@@ -1312,41 +1312,41 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C21" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D21" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F21" t="n">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1355,31 +1355,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C22" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D22" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E22" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F22" t="n">
-        <v>331</v>
+        <v>222</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
     </row>
@@ -1398,36 +1398,36 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C23" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E23" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F23" t="n">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1441,36 +1441,36 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="C24" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D24" t="n">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="E24" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F24" t="n">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1484,41 +1484,41 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C25" t="n">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D25" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E25" t="n">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F25" t="n">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
     </row>
@@ -1527,31 +1527,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C26" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D26" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F26" t="n">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1570,31 +1570,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C27" t="n">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D27" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E27" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F27" t="n">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1613,26 +1613,26 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C28" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D28" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E28" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F28" t="n">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1656,26 +1656,26 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C29" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="E29" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1699,19 +1699,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
+        <v>83</v>
+      </c>
+      <c r="C30" t="n">
+        <v>82</v>
+      </c>
+      <c r="D30" t="n">
         <v>60</v>
-      </c>
-      <c r="C30" t="n">
-        <v>56</v>
-      </c>
-      <c r="D30" t="n">
-        <v>85</v>
       </c>
       <c r="E30" t="n">
         <v>39</v>
       </c>
       <c r="F30" t="n">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -1723,17 +1723,17 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1742,36 +1742,36 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" t="n">
         <v>57</v>
       </c>
       <c r="D31" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="E31" t="n">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="F31" t="n">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1785,41 +1785,41 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C32" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D32" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E32" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F32" t="n">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИБ</t>
         </is>
       </c>
     </row>
@@ -1828,19 +1828,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C33" t="n">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D33" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E33" t="n">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F33" t="n">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1852,17 +1852,17 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
     </row>
@@ -1874,38 +1874,38 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D34" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E34" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1914,36 +1914,36 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C35" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D35" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E35" t="n">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="F35" t="n">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -1957,19 +1957,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C36" t="n">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D36" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E36" t="n">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2000,22 +2000,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C37" t="n">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D37" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E37" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="F37" t="n">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2024,17 +2024,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2043,19 +2043,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C38" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D38" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E38" t="n">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2086,22 +2086,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C39" t="n">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D39" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E39" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F39" t="n">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2110,17 +2110,17 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2129,41 +2129,41 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C40" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D40" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E40" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F40" t="n">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2172,31 +2172,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C41" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D41" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E41" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F41" t="n">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2215,36 +2215,36 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C42" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D42" t="n">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E42" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="F42" t="n">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2258,26 +2258,26 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C43" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D43" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E43" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F43" t="n">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2287,12 +2287,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
     </row>
@@ -2301,36 +2301,36 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C44" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D44" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E44" t="n">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F44" t="n">
-        <v>337</v>
+        <v>253</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2344,36 +2344,36 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C45" t="n">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="D45" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E45" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F45" t="n">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2387,36 +2387,36 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C46" t="n">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D46" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2430,41 +2430,41 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C47" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D47" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E47" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ПМ</t>
         </is>
       </c>
     </row>
@@ -2473,19 +2473,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D48" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E48" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2516,36 +2516,36 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C49" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D49" t="n">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E49" t="n">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="F49" t="n">
-        <v>344</v>
+        <v>279</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2559,31 +2559,31 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C50" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D50" t="n">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E50" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F50" t="n">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2602,39 +2602,2189 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
+        <v>91</v>
+      </c>
+      <c r="C51" t="n">
+        <v>42</v>
+      </c>
+      <c r="D51" t="n">
+        <v>95</v>
+      </c>
+      <c r="E51" t="n">
+        <v>49</v>
+      </c>
+      <c r="F51" t="n">
+        <v>277</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>67</v>
+      </c>
+      <c r="C52" t="n">
+        <v>85</v>
+      </c>
+      <c r="D52" t="n">
+        <v>99</v>
+      </c>
+      <c r="E52" t="n">
+        <v>6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>257</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>77</v>
+      </c>
+      <c r="C53" t="n">
         <v>86</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D53" t="n">
+        <v>96</v>
+      </c>
+      <c r="E53" t="n">
+        <v>69</v>
+      </c>
+      <c r="F53" t="n">
+        <v>328</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>44</v>
+      </c>
+      <c r="C54" t="n">
+        <v>60</v>
+      </c>
+      <c r="D54" t="n">
+        <v>83</v>
+      </c>
+      <c r="E54" t="n">
+        <v>76</v>
+      </c>
+      <c r="F54" t="n">
+        <v>263</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>75</v>
+      </c>
+      <c r="C55" t="n">
+        <v>94</v>
+      </c>
+      <c r="D55" t="n">
+        <v>43</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>218</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>90</v>
+      </c>
+      <c r="C56" t="n">
+        <v>75</v>
+      </c>
+      <c r="D56" t="n">
+        <v>51</v>
+      </c>
+      <c r="E56" t="n">
+        <v>53</v>
+      </c>
+      <c r="F56" t="n">
+        <v>269</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>87</v>
+      </c>
+      <c r="C57" t="n">
+        <v>48</v>
+      </c>
+      <c r="D57" t="n">
+        <v>76</v>
+      </c>
+      <c r="E57" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" t="n">
+        <v>218</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>96</v>
+      </c>
+      <c r="C58" t="n">
+        <v>45</v>
+      </c>
+      <c r="D58" t="n">
+        <v>66</v>
+      </c>
+      <c r="E58" t="n">
+        <v>86</v>
+      </c>
+      <c r="F58" t="n">
+        <v>293</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>92</v>
+      </c>
+      <c r="C59" t="n">
+        <v>98</v>
+      </c>
+      <c r="D59" t="n">
+        <v>78</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>269</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>82</v>
+      </c>
+      <c r="C60" t="n">
+        <v>40</v>
+      </c>
+      <c r="D60" t="n">
+        <v>87</v>
+      </c>
+      <c r="E60" t="n">
+        <v>25</v>
+      </c>
+      <c r="F60" t="n">
+        <v>234</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>66</v>
+      </c>
+      <c r="C61" t="n">
+        <v>72</v>
+      </c>
+      <c r="D61" t="n">
+        <v>48</v>
+      </c>
+      <c r="E61" t="n">
+        <v>22</v>
+      </c>
+      <c r="F61" t="n">
+        <v>208</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>54</v>
+      </c>
+      <c r="C62" t="n">
+        <v>44</v>
+      </c>
+      <c r="D62" t="n">
+        <v>66</v>
+      </c>
+      <c r="E62" t="n">
+        <v>93</v>
+      </c>
+      <c r="F62" t="n">
+        <v>257</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>57</v>
+      </c>
+      <c r="C63" t="n">
+        <v>96</v>
+      </c>
+      <c r="D63" t="n">
+        <v>100</v>
+      </c>
+      <c r="E63" t="n">
+        <v>33</v>
+      </c>
+      <c r="F63" t="n">
+        <v>286</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>97</v>
+      </c>
+      <c r="C64" t="n">
+        <v>50</v>
+      </c>
+      <c r="D64" t="n">
+        <v>81</v>
+      </c>
+      <c r="E64" t="n">
+        <v>23</v>
+      </c>
+      <c r="F64" t="n">
+        <v>251</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>62</v>
+      </c>
+      <c r="C65" t="n">
+        <v>61</v>
+      </c>
+      <c r="D65" t="n">
+        <v>73</v>
+      </c>
+      <c r="E65" t="n">
+        <v>18</v>
+      </c>
+      <c r="F65" t="n">
+        <v>214</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>55</v>
+      </c>
+      <c r="C66" t="n">
+        <v>84</v>
+      </c>
+      <c r="D66" t="n">
+        <v>85</v>
+      </c>
+      <c r="E66" t="n">
+        <v>80</v>
+      </c>
+      <c r="F66" t="n">
+        <v>304</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>83</v>
+      </c>
+      <c r="C67" t="n">
+        <v>56</v>
+      </c>
+      <c r="D67" t="n">
+        <v>69</v>
+      </c>
+      <c r="E67" t="n">
+        <v>73</v>
+      </c>
+      <c r="F67" t="n">
+        <v>281</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>56</v>
+      </c>
+      <c r="C68" t="n">
+        <v>63</v>
+      </c>
+      <c r="D68" t="n">
+        <v>82</v>
+      </c>
+      <c r="E68" t="n">
+        <v>15</v>
+      </c>
+      <c r="F68" t="n">
+        <v>216</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="D51" t="n">
+      <c r="B69" t="n">
+        <v>57</v>
+      </c>
+      <c r="C69" t="n">
+        <v>42</v>
+      </c>
+      <c r="D69" t="n">
+        <v>43</v>
+      </c>
+      <c r="E69" t="n">
+        <v>76</v>
+      </c>
+      <c r="F69" t="n">
+        <v>218</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>82</v>
+      </c>
+      <c r="C70" t="n">
+        <v>40</v>
+      </c>
+      <c r="D70" t="n">
+        <v>44</v>
+      </c>
+      <c r="E70" t="n">
+        <v>7</v>
+      </c>
+      <c r="F70" t="n">
+        <v>173</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>90</v>
+      </c>
+      <c r="C71" t="n">
+        <v>76</v>
+      </c>
+      <c r="D71" t="n">
+        <v>54</v>
+      </c>
+      <c r="E71" t="n">
+        <v>94</v>
+      </c>
+      <c r="F71" t="n">
+        <v>314</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>94</v>
+      </c>
+      <c r="C72" t="n">
+        <v>42</v>
+      </c>
+      <c r="D72" t="n">
+        <v>66</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>202</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>76</v>
+      </c>
+      <c r="C73" t="n">
+        <v>40</v>
+      </c>
+      <c r="D73" t="n">
+        <v>58</v>
+      </c>
+      <c r="E73" t="n">
+        <v>6</v>
+      </c>
+      <c r="F73" t="n">
+        <v>180</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>78</v>
+      </c>
+      <c r="C74" t="n">
+        <v>98</v>
+      </c>
+      <c r="D74" t="n">
+        <v>79</v>
+      </c>
+      <c r="E74" t="n">
+        <v>76</v>
+      </c>
+      <c r="F74" t="n">
+        <v>331</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>48</v>
+      </c>
+      <c r="C75" t="n">
+        <v>43</v>
+      </c>
+      <c r="D75" t="n">
+        <v>80</v>
+      </c>
+      <c r="E75" t="n">
+        <v>98</v>
+      </c>
+      <c r="F75" t="n">
+        <v>269</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>89</v>
+      </c>
+      <c r="C76" t="n">
+        <v>40</v>
+      </c>
+      <c r="D76" t="n">
+        <v>97</v>
+      </c>
+      <c r="E76" t="n">
+        <v>65</v>
+      </c>
+      <c r="F76" t="n">
+        <v>291</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>86</v>
+      </c>
+      <c r="C77" t="n">
+        <v>66</v>
+      </c>
+      <c r="D77" t="n">
+        <v>68</v>
+      </c>
+      <c r="E77" t="n">
+        <v>21</v>
+      </c>
+      <c r="F77" t="n">
+        <v>241</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>93</v>
+      </c>
+      <c r="C78" t="n">
+        <v>89</v>
+      </c>
+      <c r="D78" t="n">
+        <v>73</v>
+      </c>
+      <c r="E78" t="n">
+        <v>58</v>
+      </c>
+      <c r="F78" t="n">
+        <v>313</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>73</v>
+      </c>
+      <c r="C79" t="n">
+        <v>99</v>
+      </c>
+      <c r="D79" t="n">
+        <v>95</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>272</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>65</v>
+      </c>
+      <c r="C80" t="n">
+        <v>54</v>
+      </c>
+      <c r="D80" t="n">
+        <v>47</v>
+      </c>
+      <c r="E80" t="n">
+        <v>12</v>
+      </c>
+      <c r="F80" t="n">
+        <v>178</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>52</v>
+      </c>
+      <c r="C81" t="n">
+        <v>78</v>
+      </c>
+      <c r="D81" t="n">
+        <v>47</v>
+      </c>
+      <c r="E81" t="n">
+        <v>68</v>
+      </c>
+      <c r="F81" t="n">
+        <v>245</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>68</v>
+      </c>
+      <c r="C82" t="n">
+        <v>75</v>
+      </c>
+      <c r="D82" t="n">
+        <v>45</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>189</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>88</v>
+      </c>
+      <c r="C83" t="n">
+        <v>88</v>
+      </c>
+      <c r="D83" t="n">
+        <v>93</v>
+      </c>
+      <c r="E83" t="n">
+        <v>13</v>
+      </c>
+      <c r="F83" t="n">
+        <v>282</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>64</v>
+      </c>
+      <c r="C84" t="n">
+        <v>54</v>
+      </c>
+      <c r="D84" t="n">
+        <v>84</v>
+      </c>
+      <c r="E84" t="n">
+        <v>84</v>
+      </c>
+      <c r="F84" t="n">
+        <v>286</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>40</v>
+      </c>
+      <c r="C85" t="n">
+        <v>70</v>
+      </c>
+      <c r="D85" t="n">
         <v>60</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E85" t="n">
+        <v>34</v>
+      </c>
+      <c r="F85" t="n">
+        <v>204</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>79</v>
+      </c>
+      <c r="C86" t="n">
+        <v>66</v>
+      </c>
+      <c r="D86" t="n">
+        <v>44</v>
+      </c>
+      <c r="E86" t="n">
+        <v>28</v>
+      </c>
+      <c r="F86" t="n">
+        <v>217</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>44</v>
+      </c>
+      <c r="C87" t="n">
+        <v>82</v>
+      </c>
+      <c r="D87" t="n">
+        <v>79</v>
+      </c>
+      <c r="E87" t="n">
+        <v>87</v>
+      </c>
+      <c r="F87" t="n">
+        <v>292</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>61</v>
+      </c>
+      <c r="C88" t="n">
+        <v>81</v>
+      </c>
+      <c r="D88" t="n">
+        <v>51</v>
+      </c>
+      <c r="E88" t="n">
+        <v>11</v>
+      </c>
+      <c r="F88" t="n">
+        <v>204</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>48</v>
+      </c>
+      <c r="C89" t="n">
+        <v>59</v>
+      </c>
+      <c r="D89" t="n">
+        <v>87</v>
+      </c>
+      <c r="E89" t="n">
+        <v>36</v>
+      </c>
+      <c r="F89" t="n">
+        <v>230</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>64</v>
+      </c>
+      <c r="C90" t="n">
+        <v>99</v>
+      </c>
+      <c r="D90" t="n">
+        <v>41</v>
+      </c>
+      <c r="E90" t="n">
+        <v>21</v>
+      </c>
+      <c r="F90" t="n">
+        <v>225</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>87</v>
+      </c>
+      <c r="C91" t="n">
+        <v>84</v>
+      </c>
+      <c r="D91" t="n">
+        <v>89</v>
+      </c>
+      <c r="E91" t="n">
+        <v>20</v>
+      </c>
+      <c r="F91" t="n">
+        <v>280</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>80</v>
+      </c>
+      <c r="C92" t="n">
+        <v>83</v>
+      </c>
+      <c r="D92" t="n">
+        <v>60</v>
+      </c>
+      <c r="E92" t="n">
+        <v>66</v>
+      </c>
+      <c r="F92" t="n">
+        <v>289</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>50</v>
+      </c>
+      <c r="C93" t="n">
+        <v>73</v>
+      </c>
+      <c r="D93" t="n">
+        <v>46</v>
+      </c>
+      <c r="E93" t="n">
+        <v>35</v>
+      </c>
+      <c r="F93" t="n">
+        <v>204</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>72</v>
+      </c>
+      <c r="C94" t="n">
+        <v>57</v>
+      </c>
+      <c r="D94" t="n">
+        <v>62</v>
+      </c>
+      <c r="E94" t="n">
+        <v>85</v>
+      </c>
+      <c r="F94" t="n">
+        <v>276</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>80</v>
+      </c>
+      <c r="C95" t="n">
+        <v>95</v>
+      </c>
+      <c r="D95" t="n">
+        <v>69</v>
+      </c>
+      <c r="E95" t="n">
+        <v>69</v>
+      </c>
+      <c r="F95" t="n">
+        <v>313</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>80</v>
+      </c>
+      <c r="C96" t="n">
+        <v>55</v>
+      </c>
+      <c r="D96" t="n">
+        <v>67</v>
+      </c>
+      <c r="E96" t="n">
+        <v>92</v>
+      </c>
+      <c r="F96" t="n">
+        <v>294</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>48</v>
+      </c>
+      <c r="C97" t="n">
+        <v>57</v>
+      </c>
+      <c r="D97" t="n">
+        <v>67</v>
+      </c>
+      <c r="E97" t="n">
         <v>8</v>
       </c>
-      <c r="F51" t="n">
-        <v>222</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
+      <c r="F97" t="n">
+        <v>180</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>44</v>
+      </c>
+      <c r="C98" t="n">
+        <v>64</v>
+      </c>
+      <c r="D98" t="n">
+        <v>92</v>
+      </c>
+      <c r="E98" t="n">
+        <v>18</v>
+      </c>
+      <c r="F98" t="n">
+        <v>218</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>42</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="n">
+        <v>40</v>
+      </c>
+      <c r="E99" t="n">
+        <v>73</v>
+      </c>
+      <c r="F99" t="n">
+        <v>252</v>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>69</v>
+      </c>
+      <c r="C100" t="n">
+        <v>75</v>
+      </c>
+      <c r="D100" t="n">
+        <v>73</v>
+      </c>
+      <c r="E100" t="n">
+        <v>57</v>
+      </c>
+      <c r="F100" t="n">
+        <v>274</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>48</v>
+      </c>
+      <c r="C101" t="n">
+        <v>88</v>
+      </c>
+      <c r="D101" t="n">
+        <v>51</v>
+      </c>
+      <c r="E101" t="n">
+        <v>47</v>
+      </c>
+      <c r="F101" t="n">
+        <v>234</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/random_table.xlsx
+++ b/random_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,36 +495,36 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -538,41 +538,41 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C3" t="n">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="F3" t="n">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -581,19 +581,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="E4" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F4" t="n">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -605,12 +605,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -624,19 +624,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E5" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F5" t="n">
-        <v>240</v>
+        <v>341</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -648,12 +648,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -667,41 +667,41 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C6" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D6" t="n">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="F6" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
     </row>
@@ -710,22 +710,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C7" t="n">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D7" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F7" t="n">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -753,19 +753,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D8" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F8" t="n">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -777,12 +777,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -796,22 +796,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D9" t="n">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F9" t="n">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -825,12 +825,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
     </row>
@@ -839,19 +839,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C10" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D10" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>309</v>
+        <v>204</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -863,17 +863,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
     </row>
@@ -882,31 +882,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C11" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D11" t="n">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F11" t="n">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -925,41 +925,41 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C12" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D12" t="n">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="E12" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИБ</t>
         </is>
       </c>
     </row>
@@ -968,36 +968,36 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C13" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D13" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E13" t="n">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="F13" t="n">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1011,41 +1011,41 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1054,22 +1054,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C15" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" t="n">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="E15" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" t="n">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1078,17 +1078,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>ПМ</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>ИБ</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -1097,31 +1097,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C16" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D16" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E16" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>303</v>
+        <v>225</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1140,31 +1140,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F17" t="n">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1183,36 +1183,36 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C18" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D18" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E18" t="n">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="F18" t="n">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>ИБ</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1226,22 +1226,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C19" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D19" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E19" t="n">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F19" t="n">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1250,17 +1250,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
     </row>
@@ -1269,41 +1269,41 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C20" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="E20" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F20" t="n">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>ИБ</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1312,19 +1312,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C21" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D21" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E21" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F21" t="n">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1355,22 +1355,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C22" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E22" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1379,17 +1379,17 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1398,22 +1398,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C23" t="n">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="D23" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E23" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F23" t="n">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ПМ</t>
         </is>
       </c>
     </row>
@@ -1441,36 +1441,36 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D24" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E24" t="n">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F24" t="n">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1484,41 +1484,41 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C25" t="n">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="D25" t="n">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E25" t="n">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F25" t="n">
-        <v>315</v>
+        <v>167</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1527,41 +1527,41 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C26" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E26" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
     </row>
@@ -1570,19 +1570,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C27" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" t="n">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1613,26 +1613,26 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C28" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D28" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E28" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F28" t="n">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1656,19 +1656,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C29" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D29" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="F29" t="n">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -1680,12 +1680,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1699,19 +1699,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C30" t="n">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D30" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E30" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F30" t="n">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1742,19 +1742,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C31" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D31" t="n">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="E31" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -1766,12 +1766,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1785,41 +1785,41 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C32" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D32" t="n">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E32" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F32" t="n">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1828,41 +1828,41 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
+        <v>94</v>
+      </c>
+      <c r="C33" t="n">
+        <v>90</v>
+      </c>
+      <c r="D33" t="n">
         <v>89</v>
       </c>
-      <c r="C33" t="n">
-        <v>62</v>
-      </c>
-      <c r="D33" t="n">
-        <v>67</v>
-      </c>
       <c r="E33" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F33" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1871,36 +1871,36 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C34" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D34" t="n">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="F34" t="n">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -1917,23 +1917,23 @@
         <v>78</v>
       </c>
       <c r="C35" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D35" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E35" t="n">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F35" t="n">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1957,36 +1957,36 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C36" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D36" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="E36" t="n">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="F36" t="n">
-        <v>227</v>
+        <v>327</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2000,36 +2000,36 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C37" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D37" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E37" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="F37" t="n">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2043,36 +2043,36 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C38" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D38" t="n">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F38" t="n">
-        <v>211</v>
+        <v>332</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2086,31 +2086,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C39" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D39" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E39" t="n">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="F39" t="n">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2129,41 +2129,41 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C40" t="n">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D40" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E40" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
-        <v>306</v>
+        <v>198</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
     </row>
@@ -2172,31 +2172,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C41" t="n">
+        <v>87</v>
+      </c>
+      <c r="D41" t="n">
+        <v>87</v>
+      </c>
+      <c r="E41" t="n">
         <v>54</v>
       </c>
-      <c r="D41" t="n">
-        <v>77</v>
-      </c>
-      <c r="E41" t="n">
-        <v>48</v>
-      </c>
       <c r="F41" t="n">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2215,22 +2215,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C42" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D42" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E42" t="n">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>311</v>
+        <v>207</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2258,31 +2258,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C43" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D43" t="n">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F43" t="n">
-        <v>341</v>
+        <v>279</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2301,31 +2301,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C44" t="n">
         <v>45</v>
       </c>
       <c r="D44" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E44" t="n">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F44" t="n">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2344,19 +2344,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C45" t="n">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D45" t="n">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E45" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F45" t="n">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -2368,12 +2368,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2387,19 +2387,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D46" t="n">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F46" t="n">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2430,19 +2430,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C47" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D47" t="n">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F47" t="n">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -2459,12 +2459,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2473,19 +2473,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C48" t="n">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="D48" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="F48" t="n">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -2497,12 +2497,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2516,36 +2516,36 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="C49" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D49" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E49" t="n">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="F49" t="n">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2559,22 +2559,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C50" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D50" t="n">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E50" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F50" t="n">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2602,31 +2602,31 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C51" t="n">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D51" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="E51" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F51" t="n">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2645,41 +2645,41 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C52" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D52" t="n">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="F52" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2688,41 +2688,41 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C53" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D53" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E53" t="n">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F53" t="n">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
           <t>ИБ</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2731,36 +2731,36 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C54" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D54" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E54" t="n">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="F54" t="n">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2774,31 +2774,31 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C55" t="n">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D55" t="n">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F55" t="n">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2817,31 +2817,31 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
+        <v>59</v>
+      </c>
+      <c r="C56" t="n">
         <v>90</v>
       </c>
-      <c r="C56" t="n">
-        <v>75</v>
-      </c>
       <c r="D56" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E56" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F56" t="n">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2860,26 +2860,26 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
+        <v>43</v>
+      </c>
+      <c r="C57" t="n">
+        <v>45</v>
+      </c>
+      <c r="D57" t="n">
         <v>87</v>
       </c>
-      <c r="C57" t="n">
-        <v>48</v>
-      </c>
-      <c r="D57" t="n">
-        <v>76</v>
-      </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="F57" t="n">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
     </row>
@@ -2903,41 +2903,41 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C58" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D58" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E58" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F58" t="n">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИБ</t>
         </is>
       </c>
     </row>
@@ -2946,41 +2946,41 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C59" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D59" t="n">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F59" t="n">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -2989,36 +2989,36 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C60" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D60" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E60" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ПМ</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3032,19 +3032,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C61" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D61" t="n">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="E61" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F61" t="n">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3075,31 +3075,31 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C62" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D62" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E62" t="n">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F62" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
+          <t>ИБ</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3118,41 +3118,41 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C63" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D63" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E63" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F63" t="n">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ИТСС</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
           <t>ИБ</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -3161,19 +3161,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C64" t="n">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D64" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E64" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F64" t="n">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
@@ -3185,12 +3185,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3204,31 +3204,31 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C65" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D65" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E65" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F65" t="n">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3247,31 +3247,31 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C66" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D66" t="n">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="E66" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F66" t="n">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3290,41 +3290,41 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C67" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D67" t="n">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="E67" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F67" t="n">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИТСС</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -3333,36 +3333,36 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C68" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D68" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="E68" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F68" t="n">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>ИБ</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>ИТСС</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>ПМ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3376,26 +3376,26 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C69" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D69" t="n">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="E69" t="n">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="F69" t="n">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>ИБ</t>
+          <t>ИВТ</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3419,19 +3419,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C70" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D70" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F70" t="n">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -3462,1329 +3462,39 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C71" t="n">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D71" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="E71" t="n">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="F71" t="n">
-        <v>314</v>
+        <v>217</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
+          <t>ИВТ</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>ПМ</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>ИВТ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>94</v>
-      </c>
-      <c r="C72" t="n">
-        <v>42</v>
-      </c>
-      <c r="D72" t="n">
-        <v>66</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>202</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>76</v>
-      </c>
-      <c r="C73" t="n">
-        <v>40</v>
-      </c>
-      <c r="D73" t="n">
-        <v>58</v>
-      </c>
-      <c r="E73" t="n">
-        <v>6</v>
-      </c>
-      <c r="F73" t="n">
-        <v>180</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>78</v>
-      </c>
-      <c r="C74" t="n">
-        <v>98</v>
-      </c>
-      <c r="D74" t="n">
-        <v>79</v>
-      </c>
-      <c r="E74" t="n">
-        <v>76</v>
-      </c>
-      <c r="F74" t="n">
-        <v>331</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>48</v>
-      </c>
-      <c r="C75" t="n">
-        <v>43</v>
-      </c>
-      <c r="D75" t="n">
-        <v>80</v>
-      </c>
-      <c r="E75" t="n">
-        <v>98</v>
-      </c>
-      <c r="F75" t="n">
-        <v>269</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>89</v>
-      </c>
-      <c r="C76" t="n">
-        <v>40</v>
-      </c>
-      <c r="D76" t="n">
-        <v>97</v>
-      </c>
-      <c r="E76" t="n">
-        <v>65</v>
-      </c>
-      <c r="F76" t="n">
-        <v>291</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>86</v>
-      </c>
-      <c r="C77" t="n">
-        <v>66</v>
-      </c>
-      <c r="D77" t="n">
-        <v>68</v>
-      </c>
-      <c r="E77" t="n">
-        <v>21</v>
-      </c>
-      <c r="F77" t="n">
-        <v>241</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>93</v>
-      </c>
-      <c r="C78" t="n">
-        <v>89</v>
-      </c>
-      <c r="D78" t="n">
-        <v>73</v>
-      </c>
-      <c r="E78" t="n">
-        <v>58</v>
-      </c>
-      <c r="F78" t="n">
-        <v>313</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>73</v>
-      </c>
-      <c r="C79" t="n">
-        <v>99</v>
-      </c>
-      <c r="D79" t="n">
-        <v>95</v>
-      </c>
-      <c r="E79" t="n">
-        <v>5</v>
-      </c>
-      <c r="F79" t="n">
-        <v>272</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>65</v>
-      </c>
-      <c r="C80" t="n">
-        <v>54</v>
-      </c>
-      <c r="D80" t="n">
-        <v>47</v>
-      </c>
-      <c r="E80" t="n">
-        <v>12</v>
-      </c>
-      <c r="F80" t="n">
-        <v>178</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>52</v>
-      </c>
-      <c r="C81" t="n">
-        <v>78</v>
-      </c>
-      <c r="D81" t="n">
-        <v>47</v>
-      </c>
-      <c r="E81" t="n">
-        <v>68</v>
-      </c>
-      <c r="F81" t="n">
-        <v>245</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" t="n">
-        <v>68</v>
-      </c>
-      <c r="C82" t="n">
-        <v>75</v>
-      </c>
-      <c r="D82" t="n">
-        <v>45</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" t="n">
-        <v>189</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" t="n">
-        <v>88</v>
-      </c>
-      <c r="C83" t="n">
-        <v>88</v>
-      </c>
-      <c r="D83" t="n">
-        <v>93</v>
-      </c>
-      <c r="E83" t="n">
-        <v>13</v>
-      </c>
-      <c r="F83" t="n">
-        <v>282</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>83</v>
-      </c>
-      <c r="B84" t="n">
-        <v>64</v>
-      </c>
-      <c r="C84" t="n">
-        <v>54</v>
-      </c>
-      <c r="D84" t="n">
-        <v>84</v>
-      </c>
-      <c r="E84" t="n">
-        <v>84</v>
-      </c>
-      <c r="F84" t="n">
-        <v>286</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>84</v>
-      </c>
-      <c r="B85" t="n">
-        <v>40</v>
-      </c>
-      <c r="C85" t="n">
-        <v>70</v>
-      </c>
-      <c r="D85" t="n">
-        <v>60</v>
-      </c>
-      <c r="E85" t="n">
-        <v>34</v>
-      </c>
-      <c r="F85" t="n">
-        <v>204</v>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>85</v>
-      </c>
-      <c r="B86" t="n">
-        <v>79</v>
-      </c>
-      <c r="C86" t="n">
-        <v>66</v>
-      </c>
-      <c r="D86" t="n">
-        <v>44</v>
-      </c>
-      <c r="E86" t="n">
-        <v>28</v>
-      </c>
-      <c r="F86" t="n">
-        <v>217</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>86</v>
-      </c>
-      <c r="B87" t="n">
-        <v>44</v>
-      </c>
-      <c r="C87" t="n">
-        <v>82</v>
-      </c>
-      <c r="D87" t="n">
-        <v>79</v>
-      </c>
-      <c r="E87" t="n">
-        <v>87</v>
-      </c>
-      <c r="F87" t="n">
-        <v>292</v>
-      </c>
-      <c r="G87" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>87</v>
-      </c>
-      <c r="B88" t="n">
-        <v>61</v>
-      </c>
-      <c r="C88" t="n">
-        <v>81</v>
-      </c>
-      <c r="D88" t="n">
-        <v>51</v>
-      </c>
-      <c r="E88" t="n">
-        <v>11</v>
-      </c>
-      <c r="F88" t="n">
-        <v>204</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>88</v>
-      </c>
-      <c r="B89" t="n">
-        <v>48</v>
-      </c>
-      <c r="C89" t="n">
-        <v>59</v>
-      </c>
-      <c r="D89" t="n">
-        <v>87</v>
-      </c>
-      <c r="E89" t="n">
-        <v>36</v>
-      </c>
-      <c r="F89" t="n">
-        <v>230</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" t="n">
-        <v>64</v>
-      </c>
-      <c r="C90" t="n">
-        <v>99</v>
-      </c>
-      <c r="D90" t="n">
-        <v>41</v>
-      </c>
-      <c r="E90" t="n">
-        <v>21</v>
-      </c>
-      <c r="F90" t="n">
-        <v>225</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>90</v>
-      </c>
-      <c r="B91" t="n">
-        <v>87</v>
-      </c>
-      <c r="C91" t="n">
-        <v>84</v>
-      </c>
-      <c r="D91" t="n">
-        <v>89</v>
-      </c>
-      <c r="E91" t="n">
-        <v>20</v>
-      </c>
-      <c r="F91" t="n">
-        <v>280</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" t="n">
-        <v>80</v>
-      </c>
-      <c r="C92" t="n">
-        <v>83</v>
-      </c>
-      <c r="D92" t="n">
-        <v>60</v>
-      </c>
-      <c r="E92" t="n">
-        <v>66</v>
-      </c>
-      <c r="F92" t="n">
-        <v>289</v>
-      </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" t="n">
-        <v>50</v>
-      </c>
-      <c r="C93" t="n">
-        <v>73</v>
-      </c>
-      <c r="D93" t="n">
-        <v>46</v>
-      </c>
-      <c r="E93" t="n">
-        <v>35</v>
-      </c>
-      <c r="F93" t="n">
-        <v>204</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" t="n">
-        <v>72</v>
-      </c>
-      <c r="C94" t="n">
-        <v>57</v>
-      </c>
-      <c r="D94" t="n">
-        <v>62</v>
-      </c>
-      <c r="E94" t="n">
-        <v>85</v>
-      </c>
-      <c r="F94" t="n">
-        <v>276</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" t="n">
-        <v>80</v>
-      </c>
-      <c r="C95" t="n">
-        <v>95</v>
-      </c>
-      <c r="D95" t="n">
-        <v>69</v>
-      </c>
-      <c r="E95" t="n">
-        <v>69</v>
-      </c>
-      <c r="F95" t="n">
-        <v>313</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ПМ</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="n">
-        <v>80</v>
-      </c>
-      <c r="C96" t="n">
-        <v>55</v>
-      </c>
-      <c r="D96" t="n">
-        <v>67</v>
-      </c>
-      <c r="E96" t="n">
-        <v>92</v>
-      </c>
-      <c r="F96" t="n">
-        <v>294</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" t="n">
-        <v>48</v>
-      </c>
-      <c r="C97" t="n">
-        <v>57</v>
-      </c>
-      <c r="D97" t="n">
-        <v>67</v>
-      </c>
-      <c r="E97" t="n">
-        <v>8</v>
-      </c>
-      <c r="F97" t="n">
-        <v>180</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" t="n">
-        <v>44</v>
-      </c>
-      <c r="C98" t="n">
-        <v>64</v>
-      </c>
-      <c r="D98" t="n">
-        <v>92</v>
-      </c>
-      <c r="E98" t="n">
-        <v>18</v>
-      </c>
-      <c r="F98" t="n">
-        <v>218</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" t="n">
-        <v>42</v>
-      </c>
-      <c r="C99" t="n">
-        <v>97</v>
-      </c>
-      <c r="D99" t="n">
-        <v>40</v>
-      </c>
-      <c r="E99" t="n">
-        <v>73</v>
-      </c>
-      <c r="F99" t="n">
-        <v>252</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" t="n">
-        <v>69</v>
-      </c>
-      <c r="C100" t="n">
-        <v>75</v>
-      </c>
-      <c r="D100" t="n">
-        <v>73</v>
-      </c>
-      <c r="E100" t="n">
-        <v>57</v>
-      </c>
-      <c r="F100" t="n">
-        <v>274</v>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>ИТСС</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" t="n">
-        <v>48</v>
-      </c>
-      <c r="C101" t="n">
-        <v>88</v>
-      </c>
-      <c r="D101" t="n">
-        <v>51</v>
-      </c>
-      <c r="E101" t="n">
-        <v>47</v>
-      </c>
-      <c r="F101" t="n">
-        <v>234</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ИВТ</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>ИБ</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
         <is>
           <t>False</t>
         </is>
